--- a/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="168">
   <si>
     <t>Serie</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12902,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <v>1807777</v>
+        <v>1807779</v>
       </c>
       <c r="Q138">
         <v>3109080</v>
@@ -12935,10 +12938,10 @@
         <v>1272597</v>
       </c>
       <c r="AA138">
-        <v>-28706</v>
+        <v>-28704</v>
       </c>
       <c r="AB138">
-        <v>473234</v>
+        <v>473232</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12970,7 +12973,7 @@
         <v>-4153</v>
       </c>
       <c r="J139">
-        <v>-81641</v>
+        <v>-81642</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -12988,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>-261284</v>
+        <v>-261281</v>
       </c>
       <c r="Q139">
         <v>-657</v>
@@ -13021,10 +13024,10 @@
         <v>235521</v>
       </c>
       <c r="AA139">
-        <v>-25107</v>
+        <v>-25104</v>
       </c>
       <c r="AB139">
-        <v>-324824</v>
+        <v>-324827</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13032,7 +13035,7 @@
         <v>163</v>
       </c>
       <c r="B140">
-        <v>-2386842</v>
+        <v>-2406542</v>
       </c>
       <c r="C140">
         <v>1189</v>
@@ -13056,7 +13059,7 @@
         <v>-22014</v>
       </c>
       <c r="J140">
-        <v>-100640</v>
+        <v>-120340</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -13074,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>-750382</v>
+        <v>-750378</v>
       </c>
       <c r="Q140">
         <v>-9498</v>
@@ -13107,10 +13110,10 @@
         <v>1561476</v>
       </c>
       <c r="AA140">
-        <v>-25673</v>
+        <v>-25669</v>
       </c>
       <c r="AB140">
-        <v>-1636460</v>
+        <v>-1656164</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13121,7 +13124,7 @@
         <v>164</v>
       </c>
       <c r="B141">
-        <v>2661804</v>
+        <v>2661805</v>
       </c>
       <c r="C141">
         <v>-53013</v>
@@ -13145,7 +13148,7 @@
         <v>-5027</v>
       </c>
       <c r="J141">
-        <v>2637871</v>
+        <v>2637872</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -13163,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>1250782</v>
+        <v>1250785</v>
       </c>
       <c r="Q141">
         <v>1058388</v>
@@ -13196,10 +13199,10 @@
         <v>593955</v>
       </c>
       <c r="AA141">
-        <v>-25022</v>
+        <v>-25019</v>
       </c>
       <c r="AB141">
-        <v>1411023</v>
+        <v>1411020</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13249,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>2165763</v>
+        <v>2165766</v>
       </c>
       <c r="Q142">
         <v>1388184</v>
@@ -13282,10 +13285,10 @@
         <v>44861</v>
       </c>
       <c r="AA142">
-        <v>-25877</v>
+        <v>-25874</v>
       </c>
       <c r="AB142">
-        <v>-3347296</v>
+        <v>-3347299</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13293,7 +13296,7 @@
         <v>166</v>
       </c>
       <c r="B143">
-        <v>-2171917</v>
+        <v>-2152217</v>
       </c>
       <c r="C143">
         <v>335069</v>
@@ -13317,7 +13320,7 @@
         <v>-8866</v>
       </c>
       <c r="J143">
-        <v>21985</v>
+        <v>41685</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -13335,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <v>105866</v>
+        <v>105869</v>
       </c>
       <c r="Q143">
         <v>-11337</v>
@@ -13368,13 +13371,99 @@
         <v>712036</v>
       </c>
       <c r="AA143">
-        <v>-26450</v>
+        <v>-26447</v>
       </c>
       <c r="AB143">
-        <v>-2277783</v>
+        <v>-2258086</v>
       </c>
       <c r="AC143">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144">
+        <v>2744853</v>
+      </c>
+      <c r="C144">
+        <v>125601</v>
+      </c>
+      <c r="D144">
+        <v>203581</v>
+      </c>
+      <c r="E144">
+        <v>77980</v>
+      </c>
+      <c r="F144">
+        <v>2441164</v>
+      </c>
+      <c r="G144">
+        <v>3302075</v>
+      </c>
+      <c r="H144">
+        <v>860911</v>
+      </c>
+      <c r="I144">
+        <v>30477</v>
+      </c>
+      <c r="J144">
+        <v>147611</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>6179213</v>
+      </c>
+      <c r="Q144">
+        <v>4325590</v>
+      </c>
+      <c r="R144">
+        <v>4327211</v>
+      </c>
+      <c r="S144">
+        <v>4327211</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>1622</v>
+      </c>
+      <c r="V144">
+        <v>1881263</v>
+      </c>
+      <c r="W144">
+        <v>2794447</v>
+      </c>
+      <c r="X144">
+        <v>2794447</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>913184</v>
+      </c>
+      <c r="AA144">
+        <v>-27639</v>
+      </c>
+      <c r="AB144">
+        <v>-3434360</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13466,6 +13469,92 @@
         <v>-3434360</v>
       </c>
     </row>
+    <row r="145" spans="1:28">
+      <c r="A145" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145">
+        <v>-1746495</v>
+      </c>
+      <c r="C145">
+        <v>46428</v>
+      </c>
+      <c r="D145">
+        <v>146273</v>
+      </c>
+      <c r="E145">
+        <v>99844</v>
+      </c>
+      <c r="F145">
+        <v>-2373868</v>
+      </c>
+      <c r="G145">
+        <v>-1573482</v>
+      </c>
+      <c r="H145">
+        <v>800386</v>
+      </c>
+      <c r="I145">
+        <v>-1901</v>
+      </c>
+      <c r="J145">
+        <v>582847</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>307192</v>
+      </c>
+      <c r="Q145">
+        <v>40</v>
+      </c>
+      <c r="R145">
+        <v>2021</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>2021</v>
+      </c>
+      <c r="U145">
+        <v>1980</v>
+      </c>
+      <c r="V145">
+        <v>336433</v>
+      </c>
+      <c r="W145">
+        <v>905201</v>
+      </c>
+      <c r="X145">
+        <v>905201</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>568768</v>
+      </c>
+      <c r="AA145">
+        <v>-29281</v>
+      </c>
+      <c r="AB145">
+        <v>-2053687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="170">
   <si>
     <t>Serie</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12908,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <v>1807779</v>
+        <v>1807786</v>
       </c>
       <c r="Q138">
         <v>3109080</v>
@@ -12941,10 +12944,10 @@
         <v>1272597</v>
       </c>
       <c r="AA138">
-        <v>-28704</v>
+        <v>-28697</v>
       </c>
       <c r="AB138">
-        <v>473232</v>
+        <v>473225</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12994,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>-261281</v>
+        <v>-261270</v>
       </c>
       <c r="Q139">
         <v>-657</v>
@@ -13027,10 +13030,10 @@
         <v>235521</v>
       </c>
       <c r="AA139">
-        <v>-25104</v>
+        <v>-25093</v>
       </c>
       <c r="AB139">
-        <v>-324827</v>
+        <v>-324838</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13080,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>-750378</v>
+        <v>-750363</v>
       </c>
       <c r="Q140">
         <v>-9498</v>
@@ -13113,10 +13116,10 @@
         <v>1561476</v>
       </c>
       <c r="AA140">
-        <v>-25669</v>
+        <v>-25654</v>
       </c>
       <c r="AB140">
-        <v>-1656164</v>
+        <v>-1656179</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13169,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>1250785</v>
+        <v>1250796</v>
       </c>
       <c r="Q141">
         <v>1058388</v>
@@ -13202,10 +13205,10 @@
         <v>593955</v>
       </c>
       <c r="AA141">
-        <v>-25019</v>
+        <v>-25008</v>
       </c>
       <c r="AB141">
-        <v>1411020</v>
+        <v>1411009</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13255,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>2165766</v>
+        <v>2165777</v>
       </c>
       <c r="Q142">
         <v>1388184</v>
@@ -13288,10 +13291,10 @@
         <v>44861</v>
       </c>
       <c r="AA142">
-        <v>-25874</v>
+        <v>-25863</v>
       </c>
       <c r="AB142">
-        <v>-3347299</v>
+        <v>-3347310</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13341,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <v>105869</v>
+        <v>105880</v>
       </c>
       <c r="Q143">
         <v>-11337</v>
@@ -13374,10 +13377,10 @@
         <v>712036</v>
       </c>
       <c r="AA143">
-        <v>-26447</v>
+        <v>-26436</v>
       </c>
       <c r="AB143">
-        <v>-2258086</v>
+        <v>-2258097</v>
       </c>
       <c r="AC143">
         <v>-2</v>
@@ -13430,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="P144">
-        <v>6179213</v>
+        <v>6179226</v>
       </c>
       <c r="Q144">
         <v>4325590</v>
@@ -13463,13 +13466,13 @@
         <v>913184</v>
       </c>
       <c r="AA144">
-        <v>-27639</v>
+        <v>-27627</v>
       </c>
       <c r="AB144">
-        <v>-3434360</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28">
+        <v>-3434372</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -13516,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="P145">
-        <v>307192</v>
+        <v>307206</v>
       </c>
       <c r="Q145">
         <v>40</v>
@@ -13549,10 +13552,99 @@
         <v>568768</v>
       </c>
       <c r="AA145">
-        <v>-29281</v>
+        <v>-29268</v>
       </c>
       <c r="AB145">
-        <v>-2053687</v>
+        <v>-2053700</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146">
+        <v>-879447</v>
+      </c>
+      <c r="C146">
+        <v>33721</v>
+      </c>
+      <c r="D146">
+        <v>109837</v>
+      </c>
+      <c r="E146">
+        <v>76116</v>
+      </c>
+      <c r="F146">
+        <v>-576313</v>
+      </c>
+      <c r="G146">
+        <v>-225656</v>
+      </c>
+      <c r="H146">
+        <v>350657</v>
+      </c>
+      <c r="I146">
+        <v>113</v>
+      </c>
+      <c r="J146">
+        <v>-336968</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>1549033</v>
+      </c>
+      <c r="Q146">
+        <v>1241236</v>
+      </c>
+      <c r="R146">
+        <v>1598776</v>
+      </c>
+      <c r="S146">
+        <v>1598776</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>357540</v>
+      </c>
+      <c r="V146">
+        <v>337977</v>
+      </c>
+      <c r="W146">
+        <v>951168</v>
+      </c>
+      <c r="X146">
+        <v>951168</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>613191</v>
+      </c>
+      <c r="AA146">
+        <v>-30180</v>
+      </c>
+      <c r="AB146">
+        <v>-2428480</v>
+      </c>
+      <c r="AC146">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
